--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Notch2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H2">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I2">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J2">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N2">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O2">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P2">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q2">
-        <v>2.2107722426625</v>
+        <v>6.036147120248</v>
       </c>
       <c r="R2">
-        <v>8.843088970650001</v>
+        <v>24.144588480992</v>
       </c>
       <c r="S2">
-        <v>0.000539749224401811</v>
+        <v>0.001540488651620539</v>
       </c>
       <c r="T2">
-        <v>0.0003327028060047626</v>
+        <v>0.0007982675767150692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H3">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I3">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J3">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P3">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q3">
-        <v>28.9747238336875</v>
+        <v>27.58761058610666</v>
       </c>
       <c r="R3">
-        <v>173.848343002125</v>
+        <v>165.52566351664</v>
       </c>
       <c r="S3">
-        <v>0.007074037033165782</v>
+        <v>0.007040650300034085</v>
       </c>
       <c r="T3">
-        <v>0.006540681850884283</v>
+        <v>0.005472603950305694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H4">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I4">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J4">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N4">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O4">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P4">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q4">
-        <v>75.56452571071249</v>
+        <v>99.75729901386667</v>
       </c>
       <c r="R4">
-        <v>453.3871542642749</v>
+        <v>598.5437940832001</v>
       </c>
       <c r="S4">
-        <v>0.01844870916939326</v>
+        <v>0.02545911886933341</v>
       </c>
       <c r="T4">
-        <v>0.01705774746029168</v>
+        <v>0.01978903489851523</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H5">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I5">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J5">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N5">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O5">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P5">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q5">
-        <v>51.6354244638375</v>
+        <v>28.595441119168</v>
       </c>
       <c r="R5">
-        <v>206.54169785535</v>
+        <v>114.381764476672</v>
       </c>
       <c r="S5">
-        <v>0.01260653619951808</v>
+        <v>0.007297859322281024</v>
       </c>
       <c r="T5">
-        <v>0.00777070124043</v>
+        <v>0.003781686071024529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H6">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I6">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J6">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N6">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O6">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P6">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q6">
-        <v>2.9705865129875</v>
+        <v>128.632402880912</v>
       </c>
       <c r="R6">
-        <v>17.823519077925</v>
+        <v>771.794417285472</v>
       </c>
       <c r="S6">
-        <v>0.0007252541602713874</v>
+        <v>0.03282835108574766</v>
       </c>
       <c r="T6">
-        <v>0.0006705727862499607</v>
+        <v>0.02551704120754514</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H7">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I7">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J7">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N7">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O7">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P7">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q7">
-        <v>88.34364503442499</v>
+        <v>50.23801512975466</v>
       </c>
       <c r="R7">
-        <v>530.06187020655</v>
+        <v>301.428090778528</v>
       </c>
       <c r="S7">
-        <v>0.02156866861632622</v>
+        <v>0.01282127334632432</v>
       </c>
       <c r="T7">
-        <v>0.01994247396573336</v>
+        <v>0.009965805454462622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J8">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N8">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O8">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P8">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q8">
-        <v>4.039874241624</v>
+        <v>11.584808988012</v>
       </c>
       <c r="R8">
-        <v>24.239245449744</v>
+        <v>69.508853928072</v>
       </c>
       <c r="S8">
-        <v>0.0009863155265471143</v>
+        <v>0.002956565905651895</v>
       </c>
       <c r="T8">
-        <v>0.0009119511296712914</v>
+        <v>0.002298099403478591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J9">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P9">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q9">
         <v>52.94721826836</v>
@@ -1013,10 +1013,10 @@
         <v>476.52496441524</v>
       </c>
       <c r="S9">
-        <v>0.01292680423749264</v>
+        <v>0.01351269067045754</v>
       </c>
       <c r="T9">
-        <v>0.01792825938068298</v>
+        <v>0.01575485243359839</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J10">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N10">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O10">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P10">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q10">
-        <v>138.083505441336</v>
+        <v>191.4580992168</v>
       </c>
       <c r="R10">
-        <v>1242.751548972024</v>
+        <v>1723.1228929512</v>
       </c>
       <c r="S10">
-        <v>0.03371241212748585</v>
+        <v>0.04886213394550294</v>
       </c>
       <c r="T10">
-        <v>0.04675593888991102</v>
+        <v>0.056969831447792</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J11">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N11">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O11">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P11">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q11">
-        <v>94.356450303336</v>
+        <v>54.881485936992</v>
       </c>
       <c r="R11">
-        <v>566.1387018200161</v>
+        <v>329.288915621952</v>
       </c>
       <c r="S11">
-        <v>0.02303666559844197</v>
+        <v>0.01400633625817504</v>
       </c>
       <c r="T11">
-        <v>0.02129978962199315</v>
+        <v>0.01088693911348323</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J12">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N12">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O12">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P12">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q12">
-        <v>5.428327579272</v>
+        <v>246.876324807528</v>
       </c>
       <c r="R12">
-        <v>48.854948213448</v>
+        <v>2221.886923267752</v>
       </c>
       <c r="S12">
-        <v>0.001325299614392847</v>
+        <v>0.06300545184593807</v>
       </c>
       <c r="T12">
-        <v>0.001838065681774632</v>
+        <v>0.07345995113431636</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J13">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N13">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O13">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P13">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q13">
-        <v>161.435542340592</v>
+        <v>96.41875812847201</v>
       </c>
       <c r="R13">
-        <v>1452.919881065328</v>
+        <v>867.768823156248</v>
       </c>
       <c r="S13">
-        <v>0.03941369766081434</v>
+        <v>0.02460708788922861</v>
       </c>
       <c r="T13">
-        <v>0.05466308469075707</v>
+        <v>0.02869014380407303</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H14">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I14">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J14">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N14">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O14">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P14">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q14">
-        <v>3.239440345697667</v>
+        <v>9.4793721211845</v>
       </c>
       <c r="R14">
-        <v>19.436642074186</v>
+        <v>56.876232727107</v>
       </c>
       <c r="S14">
-        <v>0.0007908935078633411</v>
+        <v>0.002419236126334321</v>
       </c>
       <c r="T14">
-        <v>0.0007312631795127798</v>
+        <v>0.001880440103897129</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H15">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I15">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J15">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P15">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q15">
-        <v>42.45660750618723</v>
+        <v>43.32452829103499</v>
       </c>
       <c r="R15">
-        <v>382.109467555685</v>
+        <v>389.920754619315</v>
       </c>
       <c r="S15">
-        <v>0.0103655729568046</v>
+        <v>0.01105687830988624</v>
       </c>
       <c r="T15">
-        <v>0.01437607293997606</v>
+        <v>0.01289154694626145</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H16">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I16">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J16">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N16">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O16">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P16">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q16">
-        <v>110.7245552332368</v>
+        <v>156.6622781583</v>
       </c>
       <c r="R16">
-        <v>996.5209970991309</v>
+        <v>1409.9605034247</v>
       </c>
       <c r="S16">
-        <v>0.02703285831805091</v>
+        <v>0.03998187201738812</v>
       </c>
       <c r="T16">
-        <v>0.03749202717262439</v>
+        <v>0.04661606700063962</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H17">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I17">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J17">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N17">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O17">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P17">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q17">
-        <v>75.66128886887567</v>
+        <v>44.907259869252</v>
       </c>
       <c r="R17">
-        <v>453.9677332132541</v>
+        <v>269.443559215512</v>
       </c>
       <c r="S17">
-        <v>0.01847233342093821</v>
+        <v>0.01146080816550987</v>
       </c>
       <c r="T17">
-        <v>0.01707959053413995</v>
+        <v>0.008908333941818046</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H18">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I18">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J18">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N18">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O18">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P18">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q18">
-        <v>4.352794745137444</v>
+        <v>202.008729982743</v>
       </c>
       <c r="R18">
-        <v>39.17515270623701</v>
+        <v>1818.078569844687</v>
       </c>
       <c r="S18">
-        <v>0.001062713536170845</v>
+        <v>0.05155476661972212</v>
       </c>
       <c r="T18">
-        <v>0.001473883534847224</v>
+        <v>0.06010925286094952</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H19">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I19">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J19">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N19">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O19">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P19">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q19">
-        <v>129.4497743765091</v>
+        <v>78.895499158257</v>
       </c>
       <c r="R19">
-        <v>1165.047969388582</v>
+        <v>710.059492424313</v>
       </c>
       <c r="S19">
-        <v>0.0316045289380706</v>
+        <v>0.0201349666759347</v>
       </c>
       <c r="T19">
-        <v>0.0438325035326701</v>
+        <v>0.02347596318683665</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H20">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I20">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J20">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N20">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O20">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P20">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q20">
-        <v>22.0638887619075</v>
+        <v>17.331016408739</v>
       </c>
       <c r="R20">
-        <v>88.25555504763</v>
+        <v>69.324065634956</v>
       </c>
       <c r="S20">
-        <v>0.005386790469281937</v>
+        <v>0.004423058876274517</v>
       </c>
       <c r="T20">
-        <v>0.003320431458657598</v>
+        <v>0.002291989939112811</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H21">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I21">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J21">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>49.664215</v>
       </c>
       <c r="O21">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P21">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q21">
-        <v>289.1727475298625</v>
+        <v>79.20968826983666</v>
       </c>
       <c r="R21">
-        <v>1735.036485179175</v>
+        <v>475.25812961902</v>
       </c>
       <c r="S21">
-        <v>0.07060011121245632</v>
+        <v>0.02021515106362592</v>
       </c>
       <c r="T21">
-        <v>0.06527713438772766</v>
+        <v>0.01571296838394175</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H22">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I22">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J22">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N22">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O22">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P22">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q22">
-        <v>754.1470158950174</v>
+        <v>286.4236659012667</v>
       </c>
       <c r="R22">
-        <v>4524.882095370104</v>
+        <v>1718.5419954076</v>
       </c>
       <c r="S22">
-        <v>0.184121303433796</v>
+        <v>0.07309835199283971</v>
       </c>
       <c r="T22">
-        <v>0.1702392653706037</v>
+        <v>0.05681837796643785</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H23">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I23">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J23">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N23">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O23">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P23">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q23">
-        <v>515.3304531143925</v>
+        <v>82.10337643842401</v>
       </c>
       <c r="R23">
-        <v>2061.32181245757</v>
+        <v>328.413505753696</v>
       </c>
       <c r="S23">
-        <v>0.125815408304631</v>
+        <v>0.02095365092060991</v>
       </c>
       <c r="T23">
-        <v>0.07755294030848671</v>
+        <v>0.01085799634170167</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H24">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I24">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J24">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N24">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O24">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P24">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q24">
-        <v>29.6469663927225</v>
+        <v>369.330011448266</v>
       </c>
       <c r="R24">
-        <v>177.881798356335</v>
+        <v>2215.980068689596</v>
       </c>
       <c r="S24">
-        <v>0.007238161764265195</v>
+        <v>0.09425692913123726</v>
       </c>
       <c r="T24">
-        <v>0.006692432208558448</v>
+        <v>0.07326465890583936</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H25">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I25">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J25">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N25">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O25">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P25">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q25">
-        <v>881.6848335826351</v>
+        <v>144.2436453604007</v>
       </c>
       <c r="R25">
-        <v>5290.10900149581</v>
+        <v>865.461872162404</v>
       </c>
       <c r="S25">
-        <v>0.2152590375026329</v>
+        <v>0.03681250544750562</v>
       </c>
       <c r="T25">
-        <v>0.1990293340607812</v>
+        <v>0.02861387146748274</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H26">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I26">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J26">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N26">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O26">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P26">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q26">
-        <v>1.380290871139</v>
+        <v>17.74590384558033</v>
       </c>
       <c r="R26">
-        <v>8.281745226834001</v>
+        <v>106.475423073482</v>
       </c>
       <c r="S26">
-        <v>0.0003369912615914411</v>
+        <v>0.004528942542696443</v>
       </c>
       <c r="T26">
-        <v>0.000311583416691746</v>
+        <v>0.003520286876021675</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H27">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I27">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J27">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>49.664215</v>
       </c>
       <c r="O27">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P27">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q27">
-        <v>18.09030619691833</v>
+        <v>81.10589007152112</v>
       </c>
       <c r="R27">
-        <v>162.812755772265</v>
+        <v>729.9530106436899</v>
       </c>
       <c r="S27">
-        <v>0.004416659731179991</v>
+        <v>0.02069908183908344</v>
       </c>
       <c r="T27">
-        <v>0.006125490863948542</v>
+        <v>0.02413368202076174</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H28">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I28">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J28">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N28">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O28">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P28">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q28">
-        <v>47.17854829533766</v>
+        <v>293.2803659235778</v>
       </c>
       <c r="R28">
-        <v>424.606934658039</v>
+        <v>2639.5232933122</v>
       </c>
       <c r="S28">
-        <v>0.0115184116931666</v>
+        <v>0.07484825443251096</v>
       </c>
       <c r="T28">
-        <v>0.01597495163496323</v>
+        <v>0.08726783083066816</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H29">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I29">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J29">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N29">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O29">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P29">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q29">
-        <v>32.238465654421</v>
+        <v>84.06885028041867</v>
       </c>
       <c r="R29">
-        <v>193.430793926526</v>
+        <v>504.413101682512</v>
       </c>
       <c r="S29">
-        <v>0.007870863627237323</v>
+        <v>0.02145526065415884</v>
       </c>
       <c r="T29">
-        <v>0.007277430784726559</v>
+        <v>0.01667688909506265</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H30">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I30">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J30">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N30">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O30">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P30">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q30">
-        <v>1.854679268483667</v>
+        <v>378.1714076009514</v>
       </c>
       <c r="R30">
-        <v>16.692113416353</v>
+        <v>3403.542668408562</v>
       </c>
       <c r="S30">
-        <v>0.0004528108673341077</v>
+        <v>0.09651334703596415</v>
       </c>
       <c r="T30">
-        <v>0.0006280060044858042</v>
+        <v>0.1125278138534344</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H31">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I31">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J31">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N31">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O31">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P31">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q31">
-        <v>55.15716382312867</v>
+        <v>147.6966959428264</v>
       </c>
       <c r="R31">
-        <v>496.4144744081581</v>
+        <v>1329.270263485438</v>
       </c>
       <c r="S31">
-        <v>0.01346635163009065</v>
+        <v>0.0376937605146419</v>
       </c>
       <c r="T31">
-        <v>0.0186765607725005</v>
+        <v>0.04394828898687966</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H32">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I32">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J32">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N32">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O32">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P32">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q32">
-        <v>3.329924869385001</v>
+        <v>7.213530158535167</v>
       </c>
       <c r="R32">
-        <v>19.97954921631001</v>
+        <v>43.281180951211</v>
       </c>
       <c r="S32">
-        <v>0.0008129848615261624</v>
+        <v>0.001840969268305271</v>
       </c>
       <c r="T32">
-        <v>0.0007516889300829908</v>
+        <v>0.001430960956840881</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H33">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I33">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J33">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>49.664215</v>
       </c>
       <c r="O33">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P33">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q33">
-        <v>43.64251170494167</v>
+        <v>32.96872276311056</v>
       </c>
       <c r="R33">
-        <v>392.782605344475</v>
+        <v>296.718504867995</v>
       </c>
       <c r="S33">
-        <v>0.01065510566358478</v>
+        <v>0.008413967099083708</v>
       </c>
       <c r="T33">
-        <v>0.01477762752152461</v>
+        <v>0.009810097282625597</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H34">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I34">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J34">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N34">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O34">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P34">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q34">
-        <v>113.8173297780983</v>
+        <v>119.2154980047889</v>
       </c>
       <c r="R34">
-        <v>1024.355968002885</v>
+        <v>1072.9394820431</v>
       </c>
       <c r="S34">
-        <v>0.02778794408836449</v>
+        <v>0.03042505726171281</v>
       </c>
       <c r="T34">
-        <v>0.0385392599840861</v>
+        <v>0.03547348926517208</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H35">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I35">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J35">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N35">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O35">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P35">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q35">
-        <v>77.77467110601501</v>
+        <v>34.17313607512934</v>
       </c>
       <c r="R35">
-        <v>466.64802663609</v>
+        <v>205.038816450776</v>
       </c>
       <c r="S35">
-        <v>0.01898830535207967</v>
+        <v>0.008721346127802513</v>
       </c>
       <c r="T35">
-        <v>0.01755666016634011</v>
+        <v>0.006778986490887672</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H36">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I36">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J36">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N36">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O36">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P36">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q36">
-        <v>4.474377647488334</v>
+        <v>153.7228465545057</v>
       </c>
       <c r="R36">
-        <v>40.269398827395</v>
+        <v>1383.505618990551</v>
       </c>
       <c r="S36">
-        <v>0.001092397406801218</v>
+        <v>0.0392316979514396</v>
       </c>
       <c r="T36">
-        <v>0.001515052266291338</v>
+        <v>0.04574141649640134</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H37">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I37">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J37">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N37">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O37">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P37">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q37">
-        <v>133.0655844936634</v>
+        <v>60.03721082738322</v>
       </c>
       <c r="R37">
-        <v>1197.59026044297</v>
+        <v>540.334897446449</v>
       </c>
       <c r="S37">
-        <v>0.03248731128383039</v>
+        <v>0.01532213183543706</v>
       </c>
       <c r="T37">
-        <v>0.04505683946138832</v>
+        <v>0.01786453430501544</v>
       </c>
     </row>
   </sheetData>
